--- a/报表.xlsx
+++ b/报表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="17">
   <si>
     <t>日期</t>
   </si>
@@ -78,9 +78,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -107,6 +107,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -128,23 +129,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,7 +151,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -166,16 +158,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -197,6 +203,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -212,44 +250,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -278,79 +278,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,103 +446,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,6 +483,17 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,26 +531,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -551,6 +542,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,17 +576,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,10 +592,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -604,130 +604,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1121,7 +1121,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1239,28 +1239,40 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:3">
+    <row r="11" s="2" customFormat="1" spans="1:4">
       <c r="A11" s="7">
         <v>44224</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="1:3">
+      <c r="C11" s="8">
+        <v>13642.6</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:4">
       <c r="A12" s="7"/>
       <c r="B12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="9">
+        <v>697840.484</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:3">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="9">
+        <v>17347.4</v>
+      </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:3">
       <c r="A14" s="4">

--- a/报表.xlsx
+++ b/报表.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">每日报表!$A$1:$C$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">每日报表!$A$1:$C$133</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="8">
   <si>
     <t>日期</t>
   </si>
@@ -33,43 +33,16 @@
     <t>今日入库：</t>
   </si>
   <si>
-    <t>9754KG</t>
-  </si>
-  <si>
     <t>本月累计入库：</t>
-  </si>
-  <si>
-    <t>656611.384KG</t>
   </si>
   <si>
     <t>库 存：</t>
   </si>
   <si>
-    <t>12900KG</t>
-  </si>
-  <si>
-    <t>3239.4kg</t>
-  </si>
-  <si>
-    <t>659850.784kg</t>
-  </si>
-  <si>
-    <t>161390.4kg</t>
-  </si>
-  <si>
-    <t>16525.4kg</t>
-  </si>
-  <si>
     <t>福州地铁库存</t>
   </si>
   <si>
-    <t>676376.184kg</t>
-  </si>
-  <si>
     <t>92647.604KG</t>
-  </si>
-  <si>
-    <t>3704.8kg</t>
   </si>
 </sst>
 </file>
@@ -77,10 +50,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -107,23 +80,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,7 +102,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,6 +124,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -158,30 +132,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -205,23 +165,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,6 +176,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -250,6 +209,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -278,13 +251,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,169 +431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,20 +462,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,6 +504,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,30 +557,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -592,10 +565,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -604,137 +577,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -766,6 +739,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1116,23 +1095,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:M133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="11" width="16.7777777777778" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.7777777777778" style="3"/>
-    <col min="13" max="15" width="9" style="3"/>
-    <col min="16" max="16" width="11.7777777777778" style="3"/>
-    <col min="17" max="19" width="9" style="3"/>
-    <col min="20" max="20" width="11.7777777777778" style="3"/>
-    <col min="21" max="16384" width="9" style="3"/>
+    <col min="1" max="16" width="16.7777777777778" style="3" customWidth="1"/>
+    <col min="17" max="17" width="11.7777777777778" style="3"/>
+    <col min="18" max="20" width="9" style="3"/>
+    <col min="21" max="21" width="11.7777777777778" style="3"/>
+    <col min="22" max="24" width="9" style="3"/>
+    <col min="25" max="25" width="11.7777777777778" style="3"/>
+    <col min="26" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20.4" spans="1:3">
@@ -1153,26 +1132,26 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>4</v>
+      <c r="C2" s="6">
+        <v>9754</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:3">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="6">
+        <v>646313.684</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:3">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C4" s="6">
+        <v>12900</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:3">
@@ -1182,64 +1161,94 @@
       <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>9</v>
+      <c r="C5" s="8">
+        <v>24703.7</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:3">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="C6" s="9">
+        <v>656067.684</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:3">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9">
+        <v>14488.3</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:11">
       <c r="A8" s="4">
         <v>44223</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
+      <c r="C8" s="5">
+        <v>21959.4</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="2">
+        <f>SUM(C7:C8)</f>
+        <v>36447.7</v>
+      </c>
+      <c r="K8" s="2">
+        <v>-29491</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:11">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>14</v>
+        <v>4</v>
+      </c>
+      <c r="C9" s="6">
+        <v>680771.384</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="2">
+        <f>SUM(C5:C6)</f>
+        <v>680771.384</v>
+      </c>
+      <c r="K9" s="2">
+        <f>SUM(J8:K8)</f>
+        <v>6956.7</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:9">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6">
+        <v>6956.7</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:11">
       <c r="A11" s="7">
         <v>44224</v>
       </c>
@@ -1250,31 +1259,61 @@
         <v>13642.6</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="2">
+        <f>SUM(C10:C11)</f>
+        <v>20599.3</v>
+      </c>
+      <c r="K11" s="2">
+        <v>-13642.6</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:11">
       <c r="A12" s="7"/>
       <c r="B12" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="9">
-        <v>697840.484</v>
+        <v>702730.784</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="2">
+        <f>SUM(C8:C9)</f>
+        <v>702730.784</v>
+      </c>
+      <c r="K12" s="2">
+        <f>SUM(J11:K11)</f>
+        <v>6956.7</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:9">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" s="9">
-        <v>17347.4</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="1:3">
+        <v>6956.7</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:10">
       <c r="A14" s="4">
         <v>44225</v>
       </c>
@@ -1282,22 +1321,37 @@
         <v>3</v>
       </c>
       <c r="C14" s="5"/>
-    </row>
-    <row r="15" s="2" customFormat="1" spans="1:3">
+      <c r="J14" s="2">
+        <f>SUM(C13:C14)</f>
+        <v>6956.7</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:11">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="C15" s="6">
+        <f>SUM(C11:C12)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="J15" s="2">
+        <f>SUM(C11:C12)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="K15" s="2">
+        <f>SUM(J14:K14)</f>
+        <v>6956.7</v>
+      </c>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:3">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:3">
+    <row r="17" s="2" customFormat="1" spans="1:10">
       <c r="A17" s="7">
         <v>44226</v>
       </c>
@@ -1305,22 +1359,37 @@
         <v>3</v>
       </c>
       <c r="C17" s="8"/>
-    </row>
-    <row r="18" s="2" customFormat="1" spans="1:3">
+      <c r="J17" s="2">
+        <f>SUM(C16:C17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="1:11">
       <c r="A18" s="7"/>
       <c r="B18" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="C18" s="9">
+        <f>SUM(C14:C15)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="J18" s="2">
+        <f>SUM(C14:C15)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="K18" s="2">
+        <f>SUM(J17:K17)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" s="2" customFormat="1" spans="1:3">
       <c r="A19" s="7"/>
       <c r="B19" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19" s="9"/>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:3">
+    <row r="20" s="2" customFormat="1" spans="1:10">
       <c r="A20" s="4">
         <v>44227</v>
       </c>
@@ -1328,24 +1397,46 @@
         <v>3</v>
       </c>
       <c r="C20" s="5"/>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="1:3">
+      <c r="J20" s="2">
+        <f>SUM(C19:C20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:11">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:8">
+        <v>4</v>
+      </c>
+      <c r="C21" s="6">
+        <f>SUM(C17:C18)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="J21" s="2">
+        <f>SUM(C17:C18)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="K21" s="2">
+        <f>SUM(J20:K20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="7">
         <v>44228</v>
       </c>
@@ -1353,22 +1444,40 @@
         <v>3</v>
       </c>
       <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="J23" s="2">
+        <f>SUM(C22:C23)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="7"/>
       <c r="B24" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="9"/>
-    </row>
-    <row r="25" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C24" s="9">
+        <f>SUM(C20:C21)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="J24" s="2">
+        <f>SUM(C20:C21)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="K24" s="2">
+        <f>SUM(J23:K23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="7"/>
       <c r="B25" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25" s="9"/>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="4">
         <v>44229</v>
       </c>
@@ -1376,22 +1485,40 @@
         <v>3</v>
       </c>
       <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="J26" s="2">
+        <f>SUM(C25:C26)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="6"/>
-    </row>
-    <row r="28" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C27" s="6">
+        <f>SUM(C23:C24)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="J27" s="2">
+        <f>SUM(C23:C24)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="K27" s="2">
+        <f>SUM(J26:K26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="7">
         <v>44230</v>
       </c>
@@ -1399,22 +1526,40 @@
         <v>3</v>
       </c>
       <c r="C29" s="8"/>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="J29" s="2">
+        <f>SUM(C28:C29)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="7"/>
       <c r="B30" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="9"/>
-    </row>
-    <row r="31" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C30" s="9">
+        <f>SUM(C26:C27)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="J30" s="2">
+        <f>SUM(C26:C27)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="K30" s="2">
+        <f>SUM(J29:K29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="7"/>
       <c r="B31" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C31" s="9"/>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="4">
         <v>44231</v>
       </c>
@@ -1422,22 +1567,40 @@
         <v>3</v>
       </c>
       <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="J32" s="2">
+        <f>SUM(C31:C32)</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C33" s="6">
+        <f>SUM(C29:C30)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="J33" s="2">
+        <f>SUM(C29:C30)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="K33" s="2">
+        <f>SUM(J32:K32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="4"/>
       <c r="B34" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="7">
         <v>44232</v>
       </c>
@@ -1445,22 +1608,40 @@
         <v>3</v>
       </c>
       <c r="C35" s="8"/>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="J35" s="2">
+        <f>SUM(C34:C35)</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="7"/>
       <c r="B36" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="9"/>
-    </row>
-    <row r="37" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C36" s="9">
+        <f>SUM(C32:C33)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="J36" s="2">
+        <f>SUM(C32:C33)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="K36" s="2">
+        <f>SUM(J35:K35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="7"/>
       <c r="B37" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C37" s="9"/>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="4">
         <v>44233</v>
       </c>
@@ -1468,22 +1649,40 @@
         <v>3</v>
       </c>
       <c r="C38" s="5"/>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="J38" s="2">
+        <f>SUM(C37:C38)</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="4"/>
       <c r="B39" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="6"/>
-    </row>
-    <row r="40" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C39" s="6">
+        <f>SUM(C35:C36)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="J39" s="2">
+        <f>SUM(C35:C36)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="K39" s="2">
+        <f>SUM(J38:K38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="4"/>
       <c r="B40" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C40" s="6"/>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="7">
         <v>44234</v>
       </c>
@@ -1491,22 +1690,40 @@
         <v>3</v>
       </c>
       <c r="C41" s="8"/>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="J41" s="2">
+        <f>SUM(C40:C41)</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="7"/>
       <c r="B42" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="9"/>
-    </row>
-    <row r="43" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C42" s="9">
+        <f>SUM(C38:C39)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="J42" s="2">
+        <f>SUM(C38:C39)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="K42" s="2">
+        <f>SUM(J41:K41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="7"/>
       <c r="B43" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C43" s="9"/>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="4">
         <v>44235</v>
       </c>
@@ -1514,22 +1731,40 @@
         <v>3</v>
       </c>
       <c r="C44" s="5"/>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="J44" s="2">
+        <f>SUM(C43:C44)</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="4"/>
       <c r="B45" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="6"/>
-    </row>
-    <row r="46" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C45" s="6">
+        <f>SUM(C41:C42)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="J45" s="2">
+        <f>SUM(C41:C42)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="K45" s="2">
+        <f>SUM(J44:K44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="4"/>
       <c r="B46" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C46" s="6"/>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="7">
         <v>44236</v>
       </c>
@@ -1537,22 +1772,40 @@
         <v>3</v>
       </c>
       <c r="C47" s="8"/>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="J47" s="2">
+        <f>SUM(C46:C47)</f>
+        <v>0</v>
+      </c>
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="7"/>
       <c r="B48" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="9"/>
-    </row>
-    <row r="49" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C48" s="9">
+        <f>SUM(C44:C45)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="J48" s="2">
+        <f>SUM(C44:C45)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="K48" s="2">
+        <f>SUM(J47:K47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="7"/>
       <c r="B49" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C49" s="9"/>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="4">
         <v>44237</v>
       </c>
@@ -1560,22 +1813,40 @@
         <v>3</v>
       </c>
       <c r="C50" s="5"/>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="J50" s="2">
+        <f>SUM(C49:C50)</f>
+        <v>0</v>
+      </c>
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="4"/>
       <c r="B51" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="6"/>
-    </row>
-    <row r="52" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C51" s="6">
+        <f>SUM(C47:C48)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="J51" s="2">
+        <f>SUM(C47:C48)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="K51" s="2">
+        <f>SUM(J50:K50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="4"/>
       <c r="B52" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C52" s="6"/>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="7">
         <v>44238</v>
       </c>
@@ -1583,22 +1854,40 @@
         <v>3</v>
       </c>
       <c r="C53" s="8"/>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="J53" s="2">
+        <f>SUM(C52:C53)</f>
+        <v>0</v>
+      </c>
+      <c r="K53" s="2"/>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="7"/>
       <c r="B54" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" s="9"/>
-    </row>
-    <row r="55" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C54" s="9">
+        <f>SUM(C50:C51)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="J54" s="2">
+        <f>SUM(C50:C51)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="K54" s="2">
+        <f>SUM(J53:K53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="7"/>
       <c r="B55" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C55" s="9"/>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="4">
         <v>44239</v>
       </c>
@@ -1606,22 +1895,40 @@
         <v>3</v>
       </c>
       <c r="C56" s="5"/>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="J56" s="2">
+        <f>SUM(C55:C56)</f>
+        <v>0</v>
+      </c>
+      <c r="K56" s="2"/>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="4"/>
       <c r="B57" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" s="6"/>
-    </row>
-    <row r="58" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C57" s="6">
+        <f>SUM(C53:C54)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="J57" s="2">
+        <f>SUM(C53:C54)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="K57" s="2">
+        <f>SUM(J56:K56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="4"/>
       <c r="B58" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C58" s="6"/>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="7">
         <v>44240</v>
       </c>
@@ -1629,22 +1936,40 @@
         <v>3</v>
       </c>
       <c r="C59" s="8"/>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="J59" s="2">
+        <f>SUM(C58:C59)</f>
+        <v>0</v>
+      </c>
+      <c r="K59" s="2"/>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="7"/>
       <c r="B60" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" s="9"/>
-    </row>
-    <row r="61" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C60" s="9">
+        <f>SUM(C56:C57)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="J60" s="2">
+        <f>SUM(C56:C57)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="K60" s="2">
+        <f>SUM(J59:K59)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="7"/>
       <c r="B61" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C61" s="9"/>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="4">
         <v>44241</v>
       </c>
@@ -1652,22 +1977,40 @@
         <v>3</v>
       </c>
       <c r="C62" s="5"/>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="J62" s="2">
+        <f>SUM(C61:C62)</f>
+        <v>0</v>
+      </c>
+      <c r="K62" s="2"/>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="4"/>
       <c r="B63" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" s="6"/>
-    </row>
-    <row r="64" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C63" s="6">
+        <f>SUM(C59:C60)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="J63" s="2">
+        <f>SUM(C59:C60)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="K63" s="2">
+        <f>SUM(J62:K62)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="4"/>
       <c r="B64" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C64" s="6"/>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="7">
         <v>44242</v>
       </c>
@@ -1675,22 +2018,40 @@
         <v>3</v>
       </c>
       <c r="C65" s="8"/>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="J65" s="2">
+        <f>SUM(C64:C65)</f>
+        <v>0</v>
+      </c>
+      <c r="K65" s="2"/>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="7"/>
       <c r="B66" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C66" s="9"/>
-    </row>
-    <row r="67" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C66" s="9">
+        <f>SUM(C62:C63)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="J66" s="2">
+        <f>SUM(C62:C63)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="K66" s="2">
+        <f>SUM(J65:K65)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="7"/>
       <c r="B67" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C67" s="9"/>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="4">
         <v>44243</v>
       </c>
@@ -1698,22 +2059,40 @@
         <v>3</v>
       </c>
       <c r="C68" s="5"/>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="J68" s="2">
+        <f>SUM(C67:C68)</f>
+        <v>0</v>
+      </c>
+      <c r="K68" s="2"/>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="4"/>
       <c r="B69" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69" s="6"/>
-    </row>
-    <row r="70" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C69" s="6">
+        <f>SUM(C65:C66)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="J69" s="2">
+        <f>SUM(C65:C66)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="K69" s="2">
+        <f>SUM(J68:K68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="4"/>
       <c r="B70" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C70" s="6"/>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="7">
         <v>44244</v>
       </c>
@@ -1721,22 +2100,40 @@
         <v>3</v>
       </c>
       <c r="C71" s="8"/>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="J71" s="2">
+        <f>SUM(C70:C71)</f>
+        <v>0</v>
+      </c>
+      <c r="K71" s="2"/>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="7"/>
       <c r="B72" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" s="9"/>
-    </row>
-    <row r="73" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C72" s="9">
+        <f>SUM(C68:C69)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="J72" s="2">
+        <f>SUM(C68:C69)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="K72" s="2">
+        <f>SUM(J71:K71)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="7"/>
       <c r="B73" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C73" s="9"/>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="4">
         <v>44245</v>
       </c>
@@ -1744,22 +2141,40 @@
         <v>3</v>
       </c>
       <c r="C74" s="5"/>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="J74" s="2">
+        <f>SUM(C73:C74)</f>
+        <v>0</v>
+      </c>
+      <c r="K74" s="2"/>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="4"/>
       <c r="B75" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" s="6"/>
-    </row>
-    <row r="76" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C75" s="6">
+        <f>SUM(C71:C72)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="J75" s="2">
+        <f>SUM(C71:C72)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="K75" s="2">
+        <f>SUM(J74:K74)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="4"/>
       <c r="B76" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C76" s="6"/>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="7">
         <v>44246</v>
       </c>
@@ -1767,22 +2182,40 @@
         <v>3</v>
       </c>
       <c r="C77" s="8"/>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="J77" s="2">
+        <f>SUM(C76:C77)</f>
+        <v>0</v>
+      </c>
+      <c r="K77" s="2"/>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="7"/>
       <c r="B78" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C78" s="9"/>
-    </row>
-    <row r="79" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C78" s="9">
+        <f>SUM(C74:C75)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="J78" s="2">
+        <f>SUM(C74:C75)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="K78" s="2">
+        <f>SUM(J77:K77)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="7"/>
       <c r="B79" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C79" s="9"/>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="4">
         <v>44247</v>
       </c>
@@ -1790,22 +2223,40 @@
         <v>3</v>
       </c>
       <c r="C80" s="5"/>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="J80" s="2">
+        <f>SUM(C79:C80)</f>
+        <v>0</v>
+      </c>
+      <c r="K80" s="2"/>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="4"/>
       <c r="B81" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" s="6"/>
-    </row>
-    <row r="82" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C81" s="6">
+        <f>SUM(C77:C78)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="J81" s="2">
+        <f>SUM(C77:C78)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="K81" s="2">
+        <f>SUM(J80:K80)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="4"/>
       <c r="B82" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C82" s="6"/>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="7">
         <v>44248</v>
       </c>
@@ -1813,22 +2264,40 @@
         <v>3</v>
       </c>
       <c r="C83" s="8"/>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="J83" s="2">
+        <f>SUM(C82:C83)</f>
+        <v>0</v>
+      </c>
+      <c r="K83" s="2"/>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="7"/>
       <c r="B84" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C84" s="9"/>
-    </row>
-    <row r="85" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C84" s="9">
+        <f>SUM(C80:C81)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="J84" s="2">
+        <f>SUM(C80:C81)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="K84" s="2">
+        <f>SUM(J83:K83)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="7"/>
       <c r="B85" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C85" s="9"/>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="4">
         <v>44249</v>
       </c>
@@ -1836,22 +2305,40 @@
         <v>3</v>
       </c>
       <c r="C86" s="5"/>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="J86" s="2">
+        <f>SUM(C85:C86)</f>
+        <v>0</v>
+      </c>
+      <c r="K86" s="2"/>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="4"/>
       <c r="B87" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C87" s="6"/>
-    </row>
-    <row r="88" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C87" s="6">
+        <f>SUM(C83:C84)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="J87" s="2">
+        <f>SUM(C83:C84)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="K87" s="2">
+        <f>SUM(J86:K86)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="4"/>
       <c r="B88" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C88" s="6"/>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="7">
         <v>44250</v>
       </c>
@@ -1859,22 +2346,40 @@
         <v>3</v>
       </c>
       <c r="C89" s="8"/>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="J89" s="2">
+        <f>SUM(C88:C89)</f>
+        <v>0</v>
+      </c>
+      <c r="K89" s="2"/>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="7"/>
       <c r="B90" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C90" s="9"/>
-    </row>
-    <row r="91" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C90" s="9">
+        <f>SUM(C86:C87)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="J90" s="2">
+        <f>SUM(C86:C87)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="K90" s="2">
+        <f>SUM(J89:K89)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="7"/>
       <c r="B91" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C91" s="9"/>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="4">
         <v>44251</v>
       </c>
@@ -1882,22 +2387,40 @@
         <v>3</v>
       </c>
       <c r="C92" s="5"/>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="J92" s="2">
+        <f>SUM(C91:C92)</f>
+        <v>0</v>
+      </c>
+      <c r="K92" s="2"/>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="4"/>
       <c r="B93" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C93" s="6"/>
-    </row>
-    <row r="94" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C93" s="6">
+        <f>SUM(C89:C90)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="J93" s="2">
+        <f>SUM(C89:C90)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="K93" s="2">
+        <f>SUM(J92:K92)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="4"/>
       <c r="B94" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C94" s="6"/>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="7">
         <v>44252</v>
       </c>
@@ -1905,22 +2428,40 @@
         <v>3</v>
       </c>
       <c r="C95" s="8"/>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="J95" s="2">
+        <f>SUM(C94:C95)</f>
+        <v>0</v>
+      </c>
+      <c r="K95" s="2"/>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="7"/>
       <c r="B96" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C96" s="9"/>
-    </row>
-    <row r="97" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C96" s="9">
+        <f>SUM(C92:C93)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="J96" s="2">
+        <f>SUM(C92:C93)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="K96" s="2">
+        <f>SUM(J95:K95)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="7"/>
       <c r="B97" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C97" s="9"/>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="4">
         <v>44253</v>
       </c>
@@ -1928,22 +2469,40 @@
         <v>3</v>
       </c>
       <c r="C98" s="5"/>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="J98" s="2">
+        <f>SUM(C97:C98)</f>
+        <v>0</v>
+      </c>
+      <c r="K98" s="2"/>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="4"/>
       <c r="B99" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C99" s="6"/>
-    </row>
-    <row r="100" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C99" s="6">
+        <f>SUM(C95:C96)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="J99" s="2">
+        <f>SUM(C95:C96)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="K99" s="2">
+        <f>SUM(J98:K98)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="4"/>
       <c r="B100" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C100" s="6"/>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="7">
         <v>44254</v>
       </c>
@@ -1951,22 +2510,40 @@
         <v>3</v>
       </c>
       <c r="C101" s="8"/>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="J101" s="2">
+        <f>SUM(C100:C101)</f>
+        <v>0</v>
+      </c>
+      <c r="K101" s="2"/>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="7"/>
       <c r="B102" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C102" s="9"/>
-    </row>
-    <row r="103" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C102" s="9">
+        <f>SUM(C98:C99)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="J102" s="2">
+        <f>SUM(C98:C99)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="K102" s="2">
+        <f>SUM(J101:K101)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="7"/>
       <c r="B103" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C103" s="9"/>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="4">
         <v>44255</v>
       </c>
@@ -1974,22 +2551,40 @@
         <v>3</v>
       </c>
       <c r="C104" s="5"/>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="J104" s="2">
+        <f>SUM(C103:C104)</f>
+        <v>0</v>
+      </c>
+      <c r="K104" s="2"/>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="4"/>
       <c r="B105" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C105" s="6"/>
-    </row>
-    <row r="106" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C105" s="6">
+        <f>SUM(C101:C102)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="J105" s="2">
+        <f>SUM(C101:C102)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="K105" s="2">
+        <f>SUM(J104:K104)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="4"/>
       <c r="B106" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C106" s="6"/>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="7">
         <v>44256</v>
       </c>
@@ -1997,22 +2592,40 @@
         <v>3</v>
       </c>
       <c r="C107" s="8"/>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="J107" s="2">
+        <f>SUM(C106:C107)</f>
+        <v>0</v>
+      </c>
+      <c r="K107" s="2"/>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="7"/>
       <c r="B108" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C108" s="9"/>
-    </row>
-    <row r="109" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C108" s="9">
+        <f>SUM(C104:C105)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="J108" s="2">
+        <f>SUM(C104:C105)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="K108" s="2">
+        <f>SUM(J107:K107)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="7"/>
       <c r="B109" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C109" s="9"/>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="4">
         <v>44257</v>
       </c>
@@ -2020,22 +2633,40 @@
         <v>3</v>
       </c>
       <c r="C110" s="5"/>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="J110" s="2">
+        <f>SUM(C109:C110)</f>
+        <v>0</v>
+      </c>
+      <c r="K110" s="2"/>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="4"/>
       <c r="B111" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C111" s="6"/>
-    </row>
-    <row r="112" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C111" s="6">
+        <f>SUM(C107:C108)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="J111" s="2">
+        <f>SUM(C107:C108)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="K111" s="2">
+        <f>SUM(J110:K110)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="4"/>
       <c r="B112" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C112" s="6"/>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" s="7">
         <v>44258</v>
       </c>
@@ -2043,22 +2674,40 @@
         <v>3</v>
       </c>
       <c r="C113" s="8"/>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="J113" s="2">
+        <f>SUM(C112:C113)</f>
+        <v>0</v>
+      </c>
+      <c r="K113" s="2"/>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" s="7"/>
       <c r="B114" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C114" s="9"/>
-    </row>
-    <row r="115" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C114" s="9">
+        <f>SUM(C110:C111)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="J114" s="2">
+        <f>SUM(C110:C111)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="K114" s="2">
+        <f>SUM(J113:K113)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" s="7"/>
       <c r="B115" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C115" s="9"/>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" s="4">
         <v>44259</v>
       </c>
@@ -2066,22 +2715,40 @@
         <v>3</v>
       </c>
       <c r="C116" s="5"/>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="J116" s="2">
+        <f>SUM(C115:C116)</f>
+        <v>0</v>
+      </c>
+      <c r="K116" s="2"/>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" s="4"/>
       <c r="B117" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C117" s="6"/>
-    </row>
-    <row r="118" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C117" s="6">
+        <f>SUM(C113:C114)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="J117" s="2">
+        <f>SUM(C113:C114)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="K117" s="2">
+        <f>SUM(J116:K116)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" s="4"/>
       <c r="B118" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C118" s="6"/>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" s="7">
         <v>44260</v>
       </c>
@@ -2089,22 +2756,40 @@
         <v>3</v>
       </c>
       <c r="C119" s="8"/>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="J119" s="2">
+        <f>SUM(C118:C119)</f>
+        <v>0</v>
+      </c>
+      <c r="K119" s="2"/>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" s="7"/>
       <c r="B120" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C120" s="9"/>
-    </row>
-    <row r="121" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C120" s="9">
+        <f>SUM(C116:C117)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="J120" s="2">
+        <f>SUM(C116:C117)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="K120" s="2">
+        <f>SUM(J119:K119)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" s="7"/>
       <c r="B121" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C121" s="9"/>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" s="4">
         <v>44261</v>
       </c>
@@ -2112,22 +2797,40 @@
         <v>3</v>
       </c>
       <c r="C122" s="5"/>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="J122" s="2">
+        <f>SUM(C121:C122)</f>
+        <v>0</v>
+      </c>
+      <c r="K122" s="2"/>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" s="4"/>
       <c r="B123" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C123" s="6"/>
-    </row>
-    <row r="124" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C123" s="6">
+        <f>SUM(C119:C120)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="J123" s="2">
+        <f>SUM(C119:C120)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="K123" s="2">
+        <f>SUM(J122:K122)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" s="4"/>
       <c r="B124" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C124" s="6"/>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="J124" s="2"/>
+      <c r="K124" s="2"/>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" s="7">
         <v>44262</v>
       </c>
@@ -2135,22 +2838,40 @@
         <v>3</v>
       </c>
       <c r="C125" s="8"/>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="J125" s="2">
+        <f>SUM(C124:C125)</f>
+        <v>0</v>
+      </c>
+      <c r="K125" s="2"/>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" s="7"/>
       <c r="B126" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C126" s="9"/>
-    </row>
-    <row r="127" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C126" s="9">
+        <f>SUM(C122:C123)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="J126" s="2">
+        <f>SUM(C122:C123)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="K126" s="2">
+        <f>SUM(J125:K125)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" s="7"/>
       <c r="B127" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C127" s="9"/>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" s="4">
         <v>44263</v>
       </c>
@@ -2158,22 +2879,40 @@
         <v>3</v>
       </c>
       <c r="C128" s="5"/>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="J128" s="2">
+        <f>SUM(C127:C128)</f>
+        <v>0</v>
+      </c>
+      <c r="K128" s="2"/>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" s="4"/>
       <c r="B129" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C129" s="6"/>
-    </row>
-    <row r="130" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C129" s="6">
+        <f>SUM(C125:C126)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="J129" s="2">
+        <f>SUM(C125:C126)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="K129" s="2">
+        <f>SUM(J128:K128)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" s="4"/>
       <c r="B130" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C130" s="6"/>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" s="7">
         <v>44264</v>
       </c>
@@ -2181,49 +2920,44 @@
         <v>3</v>
       </c>
       <c r="C131" s="8"/>
-    </row>
-    <row r="132" spans="1:3">
+      <c r="J131" s="2">
+        <f>SUM(C130:C131)</f>
+        <v>0</v>
+      </c>
+      <c r="K131" s="2"/>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" s="7"/>
       <c r="B132" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C132" s="9"/>
-    </row>
-    <row r="133" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C132" s="9">
+        <f>SUM(C128:C129)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="J132" s="2">
+        <f>SUM(C128:C129)</f>
+        <v>716373.384</v>
+      </c>
+      <c r="K132" s="2">
+        <f>SUM(J131:K131)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" s="7"/>
       <c r="B133" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C133" s="9"/>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="4">
-        <v>44265</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C134" s="5"/>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="4"/>
-      <c r="B135" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C135" s="6"/>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="4"/>
-      <c r="B136" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C136" s="6"/>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C136">
+  <autoFilter ref="A1:C133">
     <extLst/>
   </autoFilter>
-  <mergeCells count="45">
+  <mergeCells count="44">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
@@ -2268,7 +3002,6 @@
     <mergeCell ref="A125:A127"/>
     <mergeCell ref="A128:A130"/>
     <mergeCell ref="A131:A133"/>
-    <mergeCell ref="A134:A136"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/报表.xlsx
+++ b/报表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="9">
   <si>
     <t>日期</t>
   </si>
@@ -44,16 +44,19 @@
   <si>
     <t>92647.604KG</t>
   </si>
+  <si>
+    <t>102115.277kg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -94,6 +97,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -102,7 +120,85 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,105 +220,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -251,19 +254,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,163 +428,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,8 +466,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,15 +533,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,50 +554,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,149 +568,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -739,12 +742,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1100,7 +1097,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1142,7 +1139,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="6">
-        <v>646313.684</v>
+        <v>627567.684</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:3">
@@ -1171,7 +1168,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="9">
-        <v>656067.684</v>
+        <v>637321.684</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:3">
@@ -1196,11 +1193,6 @@
       <c r="D8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
       <c r="J8" s="2">
         <f>SUM(C7:C8)</f>
         <v>36447.7</v>
@@ -1215,26 +1207,21 @@
         <v>4</v>
       </c>
       <c r="C9" s="6">
-        <v>680771.384</v>
+        <v>662025.384</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
       <c r="J9" s="2">
         <f>SUM(C5:C6)</f>
-        <v>680771.384</v>
+        <v>662025.384</v>
       </c>
       <c r="K9" s="2">
         <f>SUM(J8:K8)</f>
         <v>6956.7</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:9">
+    <row r="10" s="2" customFormat="1" spans="1:3">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>5</v>
@@ -1242,11 +1229,6 @@
       <c r="C10" s="6">
         <v>6956.7</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:11">
       <c r="A11" s="7">
@@ -1261,11 +1243,6 @@
       <c r="D11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
       <c r="J11" s="2">
         <f>SUM(C10:C11)</f>
         <v>20599.3</v>
@@ -1280,26 +1257,22 @@
         <v>4</v>
       </c>
       <c r="C12" s="9">
-        <v>702730.784</v>
+        <f>C9+C8</f>
+        <v>683984.784</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
       <c r="J12" s="2">
         <f>SUM(C8:C9)</f>
-        <v>702730.784</v>
+        <v>683984.784</v>
       </c>
       <c r="K12" s="2">
         <f>SUM(J11:K11)</f>
         <v>6956.7</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:9">
+    <row r="13" s="2" customFormat="1" spans="1:3">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
         <v>5</v>
@@ -1307,11 +1280,6 @@
       <c r="C13" s="9">
         <v>6956.7</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:10">
       <c r="A14" s="4">
@@ -1320,10 +1288,15 @@
       <c r="B14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5">
+        <v>33780.573</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="J14" s="2">
         <f>SUM(C13:C14)</f>
-        <v>6956.7</v>
+        <v>40737.273</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:11">
@@ -1333,15 +1306,18 @@
       </c>
       <c r="C15" s="6">
         <f>SUM(C11:C12)</f>
-        <v>716373.384</v>
+        <v>697627.384</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="J15" s="2">
         <f>SUM(C11:C12)</f>
-        <v>716373.384</v>
+        <v>697627.384</v>
       </c>
       <c r="K15" s="2">
         <f>SUM(J14:K14)</f>
-        <v>6956.7</v>
+        <v>40737.273</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:3">
@@ -1349,7 +1325,9 @@
       <c r="B16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="6">
+        <v>40737.273</v>
+      </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:10">
       <c r="A17" s="7">
@@ -1361,7 +1339,7 @@
       <c r="C17" s="8"/>
       <c r="J17" s="2">
         <f>SUM(C16:C17)</f>
-        <v>0</v>
+        <v>40737.273</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" spans="1:11">
@@ -1371,15 +1349,15 @@
       </c>
       <c r="C18" s="9">
         <f>SUM(C14:C15)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="J18" s="2">
         <f>SUM(C14:C15)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="K18" s="2">
         <f>SUM(J17:K17)</f>
-        <v>0</v>
+        <v>40737.273</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" spans="1:3">
@@ -1409,11 +1387,11 @@
       </c>
       <c r="C21" s="6">
         <f>SUM(C17:C18)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="J21" s="2">
         <f>SUM(C17:C18)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="K21" s="2">
         <f>SUM(J20:K20)</f>
@@ -1457,11 +1435,11 @@
       </c>
       <c r="C24" s="9">
         <f>SUM(C20:C21)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="J24" s="2">
         <f>SUM(C20:C21)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="K24" s="2">
         <f>SUM(J23:K23)</f>
@@ -1498,11 +1476,11 @@
       </c>
       <c r="C27" s="6">
         <f>SUM(C23:C24)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="J27" s="2">
         <f>SUM(C23:C24)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="K27" s="2">
         <f>SUM(J26:K26)</f>
@@ -1539,11 +1517,11 @@
       </c>
       <c r="C30" s="9">
         <f>SUM(C26:C27)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="J30" s="2">
         <f>SUM(C26:C27)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="K30" s="2">
         <f>SUM(J29:K29)</f>
@@ -1580,11 +1558,11 @@
       </c>
       <c r="C33" s="6">
         <f>SUM(C29:C30)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="J33" s="2">
         <f>SUM(C29:C30)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="K33" s="2">
         <f>SUM(J32:K32)</f>
@@ -1621,11 +1599,11 @@
       </c>
       <c r="C36" s="9">
         <f>SUM(C32:C33)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="J36" s="2">
         <f>SUM(C32:C33)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="K36" s="2">
         <f>SUM(J35:K35)</f>
@@ -1662,11 +1640,11 @@
       </c>
       <c r="C39" s="6">
         <f>SUM(C35:C36)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="J39" s="2">
         <f>SUM(C35:C36)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="K39" s="2">
         <f>SUM(J38:K38)</f>
@@ -1703,11 +1681,11 @@
       </c>
       <c r="C42" s="9">
         <f>SUM(C38:C39)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="J42" s="2">
         <f>SUM(C38:C39)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="K42" s="2">
         <f>SUM(J41:K41)</f>
@@ -1744,11 +1722,11 @@
       </c>
       <c r="C45" s="6">
         <f>SUM(C41:C42)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="J45" s="2">
         <f>SUM(C41:C42)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="K45" s="2">
         <f>SUM(J44:K44)</f>
@@ -1785,11 +1763,11 @@
       </c>
       <c r="C48" s="9">
         <f>SUM(C44:C45)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="J48" s="2">
         <f>SUM(C44:C45)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="K48" s="2">
         <f>SUM(J47:K47)</f>
@@ -1826,11 +1804,11 @@
       </c>
       <c r="C51" s="6">
         <f>SUM(C47:C48)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="J51" s="2">
         <f>SUM(C47:C48)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="K51" s="2">
         <f>SUM(J50:K50)</f>
@@ -1867,11 +1845,11 @@
       </c>
       <c r="C54" s="9">
         <f>SUM(C50:C51)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="J54" s="2">
         <f>SUM(C50:C51)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="K54" s="2">
         <f>SUM(J53:K53)</f>
@@ -1908,11 +1886,11 @@
       </c>
       <c r="C57" s="6">
         <f>SUM(C53:C54)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="J57" s="2">
         <f>SUM(C53:C54)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="K57" s="2">
         <f>SUM(J56:K56)</f>
@@ -1949,11 +1927,11 @@
       </c>
       <c r="C60" s="9">
         <f>SUM(C56:C57)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="J60" s="2">
         <f>SUM(C56:C57)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="K60" s="2">
         <f>SUM(J59:K59)</f>
@@ -1990,11 +1968,11 @@
       </c>
       <c r="C63" s="6">
         <f>SUM(C59:C60)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="J63" s="2">
         <f>SUM(C59:C60)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="K63" s="2">
         <f>SUM(J62:K62)</f>
@@ -2031,11 +2009,11 @@
       </c>
       <c r="C66" s="9">
         <f>SUM(C62:C63)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="J66" s="2">
         <f>SUM(C62:C63)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="K66" s="2">
         <f>SUM(J65:K65)</f>
@@ -2072,11 +2050,11 @@
       </c>
       <c r="C69" s="6">
         <f>SUM(C65:C66)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="J69" s="2">
         <f>SUM(C65:C66)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="K69" s="2">
         <f>SUM(J68:K68)</f>
@@ -2113,11 +2091,11 @@
       </c>
       <c r="C72" s="9">
         <f>SUM(C68:C69)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="J72" s="2">
         <f>SUM(C68:C69)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="K72" s="2">
         <f>SUM(J71:K71)</f>
@@ -2154,11 +2132,11 @@
       </c>
       <c r="C75" s="6">
         <f>SUM(C71:C72)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="J75" s="2">
         <f>SUM(C71:C72)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="K75" s="2">
         <f>SUM(J74:K74)</f>
@@ -2195,11 +2173,11 @@
       </c>
       <c r="C78" s="9">
         <f>SUM(C74:C75)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="J78" s="2">
         <f>SUM(C74:C75)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="K78" s="2">
         <f>SUM(J77:K77)</f>
@@ -2236,11 +2214,11 @@
       </c>
       <c r="C81" s="6">
         <f>SUM(C77:C78)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="J81" s="2">
         <f>SUM(C77:C78)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="K81" s="2">
         <f>SUM(J80:K80)</f>
@@ -2277,11 +2255,11 @@
       </c>
       <c r="C84" s="9">
         <f>SUM(C80:C81)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="J84" s="2">
         <f>SUM(C80:C81)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="K84" s="2">
         <f>SUM(J83:K83)</f>
@@ -2318,11 +2296,11 @@
       </c>
       <c r="C87" s="6">
         <f>SUM(C83:C84)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="J87" s="2">
         <f>SUM(C83:C84)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="K87" s="2">
         <f>SUM(J86:K86)</f>
@@ -2359,11 +2337,11 @@
       </c>
       <c r="C90" s="9">
         <f>SUM(C86:C87)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="J90" s="2">
         <f>SUM(C86:C87)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="K90" s="2">
         <f>SUM(J89:K89)</f>
@@ -2400,11 +2378,11 @@
       </c>
       <c r="C93" s="6">
         <f>SUM(C89:C90)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="J93" s="2">
         <f>SUM(C89:C90)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="K93" s="2">
         <f>SUM(J92:K92)</f>
@@ -2441,11 +2419,11 @@
       </c>
       <c r="C96" s="9">
         <f>SUM(C92:C93)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="J96" s="2">
         <f>SUM(C92:C93)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="K96" s="2">
         <f>SUM(J95:K95)</f>
@@ -2482,11 +2460,11 @@
       </c>
       <c r="C99" s="6">
         <f>SUM(C95:C96)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="J99" s="2">
         <f>SUM(C95:C96)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="K99" s="2">
         <f>SUM(J98:K98)</f>
@@ -2523,11 +2501,11 @@
       </c>
       <c r="C102" s="9">
         <f>SUM(C98:C99)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="J102" s="2">
         <f>SUM(C98:C99)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="K102" s="2">
         <f>SUM(J101:K101)</f>
@@ -2564,11 +2542,11 @@
       </c>
       <c r="C105" s="6">
         <f>SUM(C101:C102)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="J105" s="2">
         <f>SUM(C101:C102)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="K105" s="2">
         <f>SUM(J104:K104)</f>
@@ -2605,11 +2583,11 @@
       </c>
       <c r="C108" s="9">
         <f>SUM(C104:C105)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="J108" s="2">
         <f>SUM(C104:C105)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="K108" s="2">
         <f>SUM(J107:K107)</f>
@@ -2646,11 +2624,11 @@
       </c>
       <c r="C111" s="6">
         <f>SUM(C107:C108)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="J111" s="2">
         <f>SUM(C107:C108)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="K111" s="2">
         <f>SUM(J110:K110)</f>
@@ -2687,11 +2665,11 @@
       </c>
       <c r="C114" s="9">
         <f>SUM(C110:C111)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="J114" s="2">
         <f>SUM(C110:C111)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="K114" s="2">
         <f>SUM(J113:K113)</f>
@@ -2728,11 +2706,11 @@
       </c>
       <c r="C117" s="6">
         <f>SUM(C113:C114)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="J117" s="2">
         <f>SUM(C113:C114)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="K117" s="2">
         <f>SUM(J116:K116)</f>
@@ -2769,11 +2747,11 @@
       </c>
       <c r="C120" s="9">
         <f>SUM(C116:C117)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="J120" s="2">
         <f>SUM(C116:C117)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="K120" s="2">
         <f>SUM(J119:K119)</f>
@@ -2810,11 +2788,11 @@
       </c>
       <c r="C123" s="6">
         <f>SUM(C119:C120)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="J123" s="2">
         <f>SUM(C119:C120)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="K123" s="2">
         <f>SUM(J122:K122)</f>
@@ -2851,11 +2829,11 @@
       </c>
       <c r="C126" s="9">
         <f>SUM(C122:C123)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="J126" s="2">
         <f>SUM(C122:C123)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="K126" s="2">
         <f>SUM(J125:K125)</f>
@@ -2892,11 +2870,11 @@
       </c>
       <c r="C129" s="6">
         <f>SUM(C125:C126)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="J129" s="2">
         <f>SUM(C125:C126)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="K129" s="2">
         <f>SUM(J128:K128)</f>
@@ -2933,11 +2911,11 @@
       </c>
       <c r="C132" s="9">
         <f>SUM(C128:C129)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="J132" s="2">
         <f>SUM(C128:C129)</f>
-        <v>716373.384</v>
+        <v>731407.957</v>
       </c>
       <c r="K132" s="2">
         <f>SUM(J131:K131)</f>

--- a/报表.xlsx
+++ b/报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740"/>
+    <workbookView windowWidth="30048" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="每日报表" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="9">
   <si>
     <t>日期</t>
   </si>
@@ -54,9 +54,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -83,8 +83,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,16 +98,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,51 +114,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,6 +129,37 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -197,8 +183,22 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,11 +212,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -254,13 +254,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,7 +374,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,157 +416,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,15 +463,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -483,26 +474,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,17 +493,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,6 +528,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -568,145 +568,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1095,9 +1095,9 @@
   <dimension ref="A1:M133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1336,10 +1336,15 @@
       <c r="B17" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="8">
+        <v>28286.2</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="J17" s="2">
         <f>SUM(C16:C17)</f>
-        <v>40737.273</v>
+        <v>69023.473</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" spans="1:11">
@@ -1351,13 +1356,16 @@
         <f>SUM(C14:C15)</f>
         <v>731407.957</v>
       </c>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="J18" s="2">
         <f>SUM(C14:C15)</f>
         <v>731407.957</v>
       </c>
       <c r="K18" s="2">
         <f>SUM(J17:K17)</f>
-        <v>40737.273</v>
+        <v>69023.473</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" spans="1:3">
@@ -1365,7 +1373,10 @@
       <c r="B19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="9">
+        <f>C16+C17</f>
+        <v>69023.473</v>
+      </c>
     </row>
     <row r="20" s="2" customFormat="1" spans="1:10">
       <c r="A20" s="4">
@@ -1377,7 +1388,7 @@
       <c r="C20" s="5"/>
       <c r="J20" s="2">
         <f>SUM(C19:C20)</f>
-        <v>0</v>
+        <v>69023.473</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" spans="1:11">
@@ -1387,15 +1398,15 @@
       </c>
       <c r="C21" s="6">
         <f>SUM(C17:C18)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="J21" s="2">
         <f>SUM(C17:C18)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="K21" s="2">
         <f>SUM(J20:K20)</f>
-        <v>0</v>
+        <v>69023.473</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1435,11 +1446,11 @@
       </c>
       <c r="C24" s="9">
         <f>SUM(C20:C21)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="J24" s="2">
         <f>SUM(C20:C21)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="K24" s="2">
         <f>SUM(J23:K23)</f>
@@ -1476,11 +1487,11 @@
       </c>
       <c r="C27" s="6">
         <f>SUM(C23:C24)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="J27" s="2">
         <f>SUM(C23:C24)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="K27" s="2">
         <f>SUM(J26:K26)</f>
@@ -1517,11 +1528,11 @@
       </c>
       <c r="C30" s="9">
         <f>SUM(C26:C27)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="J30" s="2">
         <f>SUM(C26:C27)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="K30" s="2">
         <f>SUM(J29:K29)</f>
@@ -1558,11 +1569,11 @@
       </c>
       <c r="C33" s="6">
         <f>SUM(C29:C30)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="J33" s="2">
         <f>SUM(C29:C30)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="K33" s="2">
         <f>SUM(J32:K32)</f>
@@ -1599,11 +1610,11 @@
       </c>
       <c r="C36" s="9">
         <f>SUM(C32:C33)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="J36" s="2">
         <f>SUM(C32:C33)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="K36" s="2">
         <f>SUM(J35:K35)</f>
@@ -1640,11 +1651,11 @@
       </c>
       <c r="C39" s="6">
         <f>SUM(C35:C36)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="J39" s="2">
         <f>SUM(C35:C36)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="K39" s="2">
         <f>SUM(J38:K38)</f>
@@ -1681,11 +1692,11 @@
       </c>
       <c r="C42" s="9">
         <f>SUM(C38:C39)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="J42" s="2">
         <f>SUM(C38:C39)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="K42" s="2">
         <f>SUM(J41:K41)</f>
@@ -1722,11 +1733,11 @@
       </c>
       <c r="C45" s="6">
         <f>SUM(C41:C42)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="J45" s="2">
         <f>SUM(C41:C42)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="K45" s="2">
         <f>SUM(J44:K44)</f>
@@ -1763,11 +1774,11 @@
       </c>
       <c r="C48" s="9">
         <f>SUM(C44:C45)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="J48" s="2">
         <f>SUM(C44:C45)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="K48" s="2">
         <f>SUM(J47:K47)</f>
@@ -1804,11 +1815,11 @@
       </c>
       <c r="C51" s="6">
         <f>SUM(C47:C48)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="J51" s="2">
         <f>SUM(C47:C48)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="K51" s="2">
         <f>SUM(J50:K50)</f>
@@ -1845,11 +1856,11 @@
       </c>
       <c r="C54" s="9">
         <f>SUM(C50:C51)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="J54" s="2">
         <f>SUM(C50:C51)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="K54" s="2">
         <f>SUM(J53:K53)</f>
@@ -1886,11 +1897,11 @@
       </c>
       <c r="C57" s="6">
         <f>SUM(C53:C54)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="J57" s="2">
         <f>SUM(C53:C54)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="K57" s="2">
         <f>SUM(J56:K56)</f>
@@ -1927,11 +1938,11 @@
       </c>
       <c r="C60" s="9">
         <f>SUM(C56:C57)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="J60" s="2">
         <f>SUM(C56:C57)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="K60" s="2">
         <f>SUM(J59:K59)</f>
@@ -1968,11 +1979,11 @@
       </c>
       <c r="C63" s="6">
         <f>SUM(C59:C60)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="J63" s="2">
         <f>SUM(C59:C60)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="K63" s="2">
         <f>SUM(J62:K62)</f>
@@ -2009,11 +2020,11 @@
       </c>
       <c r="C66" s="9">
         <f>SUM(C62:C63)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="J66" s="2">
         <f>SUM(C62:C63)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="K66" s="2">
         <f>SUM(J65:K65)</f>
@@ -2050,11 +2061,11 @@
       </c>
       <c r="C69" s="6">
         <f>SUM(C65:C66)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="J69" s="2">
         <f>SUM(C65:C66)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="K69" s="2">
         <f>SUM(J68:K68)</f>
@@ -2091,11 +2102,11 @@
       </c>
       <c r="C72" s="9">
         <f>SUM(C68:C69)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="J72" s="2">
         <f>SUM(C68:C69)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="K72" s="2">
         <f>SUM(J71:K71)</f>
@@ -2132,11 +2143,11 @@
       </c>
       <c r="C75" s="6">
         <f>SUM(C71:C72)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="J75" s="2">
         <f>SUM(C71:C72)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="K75" s="2">
         <f>SUM(J74:K74)</f>
@@ -2173,11 +2184,11 @@
       </c>
       <c r="C78" s="9">
         <f>SUM(C74:C75)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="J78" s="2">
         <f>SUM(C74:C75)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="K78" s="2">
         <f>SUM(J77:K77)</f>
@@ -2214,11 +2225,11 @@
       </c>
       <c r="C81" s="6">
         <f>SUM(C77:C78)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="J81" s="2">
         <f>SUM(C77:C78)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="K81" s="2">
         <f>SUM(J80:K80)</f>
@@ -2255,11 +2266,11 @@
       </c>
       <c r="C84" s="9">
         <f>SUM(C80:C81)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="J84" s="2">
         <f>SUM(C80:C81)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="K84" s="2">
         <f>SUM(J83:K83)</f>
@@ -2296,11 +2307,11 @@
       </c>
       <c r="C87" s="6">
         <f>SUM(C83:C84)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="J87" s="2">
         <f>SUM(C83:C84)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="K87" s="2">
         <f>SUM(J86:K86)</f>
@@ -2337,11 +2348,11 @@
       </c>
       <c r="C90" s="9">
         <f>SUM(C86:C87)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="J90" s="2">
         <f>SUM(C86:C87)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="K90" s="2">
         <f>SUM(J89:K89)</f>
@@ -2378,11 +2389,11 @@
       </c>
       <c r="C93" s="6">
         <f>SUM(C89:C90)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="J93" s="2">
         <f>SUM(C89:C90)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="K93" s="2">
         <f>SUM(J92:K92)</f>
@@ -2419,11 +2430,11 @@
       </c>
       <c r="C96" s="9">
         <f>SUM(C92:C93)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="J96" s="2">
         <f>SUM(C92:C93)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="K96" s="2">
         <f>SUM(J95:K95)</f>
@@ -2460,11 +2471,11 @@
       </c>
       <c r="C99" s="6">
         <f>SUM(C95:C96)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="J99" s="2">
         <f>SUM(C95:C96)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="K99" s="2">
         <f>SUM(J98:K98)</f>
@@ -2501,11 +2512,11 @@
       </c>
       <c r="C102" s="9">
         <f>SUM(C98:C99)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="J102" s="2">
         <f>SUM(C98:C99)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="K102" s="2">
         <f>SUM(J101:K101)</f>
@@ -2542,11 +2553,11 @@
       </c>
       <c r="C105" s="6">
         <f>SUM(C101:C102)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="J105" s="2">
         <f>SUM(C101:C102)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="K105" s="2">
         <f>SUM(J104:K104)</f>
@@ -2583,11 +2594,11 @@
       </c>
       <c r="C108" s="9">
         <f>SUM(C104:C105)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="J108" s="2">
         <f>SUM(C104:C105)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="K108" s="2">
         <f>SUM(J107:K107)</f>
@@ -2624,11 +2635,11 @@
       </c>
       <c r="C111" s="6">
         <f>SUM(C107:C108)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="J111" s="2">
         <f>SUM(C107:C108)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="K111" s="2">
         <f>SUM(J110:K110)</f>
@@ -2665,11 +2676,11 @@
       </c>
       <c r="C114" s="9">
         <f>SUM(C110:C111)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="J114" s="2">
         <f>SUM(C110:C111)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="K114" s="2">
         <f>SUM(J113:K113)</f>
@@ -2706,11 +2717,11 @@
       </c>
       <c r="C117" s="6">
         <f>SUM(C113:C114)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="J117" s="2">
         <f>SUM(C113:C114)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="K117" s="2">
         <f>SUM(J116:K116)</f>
@@ -2747,11 +2758,11 @@
       </c>
       <c r="C120" s="9">
         <f>SUM(C116:C117)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="J120" s="2">
         <f>SUM(C116:C117)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="K120" s="2">
         <f>SUM(J119:K119)</f>
@@ -2788,11 +2799,11 @@
       </c>
       <c r="C123" s="6">
         <f>SUM(C119:C120)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="J123" s="2">
         <f>SUM(C119:C120)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="K123" s="2">
         <f>SUM(J122:K122)</f>
@@ -2829,11 +2840,11 @@
       </c>
       <c r="C126" s="9">
         <f>SUM(C122:C123)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="J126" s="2">
         <f>SUM(C122:C123)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="K126" s="2">
         <f>SUM(J125:K125)</f>
@@ -2870,11 +2881,11 @@
       </c>
       <c r="C129" s="6">
         <f>SUM(C125:C126)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="J129" s="2">
         <f>SUM(C125:C126)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="K129" s="2">
         <f>SUM(J128:K128)</f>
@@ -2911,11 +2922,11 @@
       </c>
       <c r="C132" s="9">
         <f>SUM(C128:C129)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="J132" s="2">
         <f>SUM(C128:C129)</f>
-        <v>731407.957</v>
+        <v>759694.157</v>
       </c>
       <c r="K132" s="2">
         <f>SUM(J131:K131)</f>

--- a/报表.xlsx
+++ b/报表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="10">
   <si>
     <t>日期</t>
   </si>
@@ -47,14 +47,17 @@
   <si>
     <t>102115.277kg</t>
   </si>
+  <si>
+    <t>计入本日 本月累计入库：</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -83,9 +86,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,10 +124,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -119,40 +154,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,7 +171,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,7 +179,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,6 +194,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -198,7 +208,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,13 +229,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -254,187 +257,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,17 +466,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,11 +492,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,11 +533,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,8 +558,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,10 +571,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,43 +583,43 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -625,88 +628,88 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1095,14 +1098,16 @@
   <dimension ref="A1:M133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16" width="16.7777777777778" style="3" customWidth="1"/>
+    <col min="1" max="4" width="16.7777777777778" style="3" customWidth="1"/>
+    <col min="5" max="5" width="26.5555555555556" style="3" customWidth="1"/>
+    <col min="6" max="16" width="16.7777777777778" style="3" customWidth="1"/>
     <col min="17" max="17" width="11.7777777777778" style="3"/>
     <col min="18" max="20" width="9" style="3"/>
     <col min="21" max="21" width="11.7777777777778" style="3"/>
@@ -1385,10 +1390,18 @@
       <c r="B20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="5">
+        <v>44258.4</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="J20" s="2">
         <f>SUM(C19:C20)</f>
-        <v>69023.473</v>
+        <v>113281.873</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" spans="1:11">
@@ -1400,13 +1413,20 @@
         <f>SUM(C17:C18)</f>
         <v>759694.157</v>
       </c>
+      <c r="D21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2">
+        <f>C21+C20</f>
+        <v>803952.557</v>
+      </c>
       <c r="J21" s="2">
         <f>SUM(C17:C18)</f>
         <v>759694.157</v>
       </c>
       <c r="K21" s="2">
         <f>SUM(J20:K20)</f>
-        <v>69023.473</v>
+        <v>113281.873</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1414,10 +1434,11 @@
       <c r="B22" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="6">
+        <v>113281.9</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1433,9 +1454,12 @@
         <v>3</v>
       </c>
       <c r="C23" s="8"/>
+      <c r="E23" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="J23" s="2">
         <f>SUM(C22:C23)</f>
-        <v>0</v>
+        <v>113281.9</v>
       </c>
       <c r="K23" s="2"/>
     </row>
@@ -1446,15 +1470,19 @@
       </c>
       <c r="C24" s="9">
         <f>SUM(C20:C21)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
+      </c>
+      <c r="E24" s="2">
+        <f>C24+C23</f>
+        <v>803952.557</v>
       </c>
       <c r="J24" s="2">
         <f>SUM(C20:C21)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="K24" s="2">
         <f>SUM(J23:K23)</f>
-        <v>0</v>
+        <v>113281.9</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1474,6 +1502,9 @@
         <v>3</v>
       </c>
       <c r="C26" s="5"/>
+      <c r="E26" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="J26" s="2">
         <f>SUM(C25:C26)</f>
         <v>0</v>
@@ -1487,11 +1518,15 @@
       </c>
       <c r="C27" s="6">
         <f>SUM(C23:C24)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
+      </c>
+      <c r="E27" s="2">
+        <f>C27+C26</f>
+        <v>803952.557</v>
       </c>
       <c r="J27" s="2">
         <f>SUM(C23:C24)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="K27" s="2">
         <f>SUM(J26:K26)</f>
@@ -1504,6 +1539,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="6"/>
+      <c r="E28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
@@ -1515,6 +1551,9 @@
         <v>3</v>
       </c>
       <c r="C29" s="8"/>
+      <c r="E29" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="J29" s="2">
         <f>SUM(C28:C29)</f>
         <v>0</v>
@@ -1528,11 +1567,15 @@
       </c>
       <c r="C30" s="9">
         <f>SUM(C26:C27)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
+      </c>
+      <c r="E30" s="2">
+        <f>C30+C29</f>
+        <v>803952.557</v>
       </c>
       <c r="J30" s="2">
         <f>SUM(C26:C27)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="K30" s="2">
         <f>SUM(J29:K29)</f>
@@ -1556,6 +1599,9 @@
         <v>3</v>
       </c>
       <c r="C32" s="5"/>
+      <c r="E32" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="J32" s="2">
         <f>SUM(C31:C32)</f>
         <v>0</v>
@@ -1569,11 +1615,15 @@
       </c>
       <c r="C33" s="6">
         <f>SUM(C29:C30)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
+      </c>
+      <c r="E33" s="2">
+        <f>C33+C32</f>
+        <v>803952.557</v>
       </c>
       <c r="J33" s="2">
         <f>SUM(C29:C30)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="K33" s="2">
         <f>SUM(J32:K32)</f>
@@ -1586,6 +1636,7 @@
         <v>5</v>
       </c>
       <c r="C34" s="6"/>
+      <c r="E34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
@@ -1597,6 +1648,9 @@
         <v>3</v>
       </c>
       <c r="C35" s="8"/>
+      <c r="E35" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="J35" s="2">
         <f>SUM(C34:C35)</f>
         <v>0</v>
@@ -1610,11 +1664,15 @@
       </c>
       <c r="C36" s="9">
         <f>SUM(C32:C33)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
+      </c>
+      <c r="E36" s="2">
+        <f>C36+C35</f>
+        <v>803952.557</v>
       </c>
       <c r="J36" s="2">
         <f>SUM(C32:C33)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="K36" s="2">
         <f>SUM(J35:K35)</f>
@@ -1638,6 +1696,9 @@
         <v>3</v>
       </c>
       <c r="C38" s="5"/>
+      <c r="E38" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="J38" s="2">
         <f>SUM(C37:C38)</f>
         <v>0</v>
@@ -1651,11 +1712,15 @@
       </c>
       <c r="C39" s="6">
         <f>SUM(C35:C36)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
+      </c>
+      <c r="E39" s="2">
+        <f>C39+C38</f>
+        <v>803952.557</v>
       </c>
       <c r="J39" s="2">
         <f>SUM(C35:C36)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="K39" s="2">
         <f>SUM(J38:K38)</f>
@@ -1668,6 +1733,7 @@
         <v>5</v>
       </c>
       <c r="C40" s="6"/>
+      <c r="E40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
@@ -1679,6 +1745,9 @@
         <v>3</v>
       </c>
       <c r="C41" s="8"/>
+      <c r="E41" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="J41" s="2">
         <f>SUM(C40:C41)</f>
         <v>0</v>
@@ -1692,11 +1761,15 @@
       </c>
       <c r="C42" s="9">
         <f>SUM(C38:C39)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
+      </c>
+      <c r="E42" s="2">
+        <f>C42+C41</f>
+        <v>803952.557</v>
       </c>
       <c r="J42" s="2">
         <f>SUM(C38:C39)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="K42" s="2">
         <f>SUM(J41:K41)</f>
@@ -1720,6 +1793,9 @@
         <v>3</v>
       </c>
       <c r="C44" s="5"/>
+      <c r="E44" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="J44" s="2">
         <f>SUM(C43:C44)</f>
         <v>0</v>
@@ -1733,11 +1809,15 @@
       </c>
       <c r="C45" s="6">
         <f>SUM(C41:C42)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
+      </c>
+      <c r="E45" s="2">
+        <f>C45+C44</f>
+        <v>803952.557</v>
       </c>
       <c r="J45" s="2">
         <f>SUM(C41:C42)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="K45" s="2">
         <f>SUM(J44:K44)</f>
@@ -1750,6 +1830,7 @@
         <v>5</v>
       </c>
       <c r="C46" s="6"/>
+      <c r="E46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
@@ -1761,6 +1842,9 @@
         <v>3</v>
       </c>
       <c r="C47" s="8"/>
+      <c r="E47" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="J47" s="2">
         <f>SUM(C46:C47)</f>
         <v>0</v>
@@ -1774,11 +1858,15 @@
       </c>
       <c r="C48" s="9">
         <f>SUM(C44:C45)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
+      </c>
+      <c r="E48" s="2">
+        <f>C48+C47</f>
+        <v>803952.557</v>
       </c>
       <c r="J48" s="2">
         <f>SUM(C44:C45)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="K48" s="2">
         <f>SUM(J47:K47)</f>
@@ -1802,6 +1890,9 @@
         <v>3</v>
       </c>
       <c r="C50" s="5"/>
+      <c r="E50" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="J50" s="2">
         <f>SUM(C49:C50)</f>
         <v>0</v>
@@ -1815,11 +1906,15 @@
       </c>
       <c r="C51" s="6">
         <f>SUM(C47:C48)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
+      </c>
+      <c r="E51" s="2">
+        <f>C51+C50</f>
+        <v>803952.557</v>
       </c>
       <c r="J51" s="2">
         <f>SUM(C47:C48)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="K51" s="2">
         <f>SUM(J50:K50)</f>
@@ -1832,6 +1927,7 @@
         <v>5</v>
       </c>
       <c r="C52" s="6"/>
+      <c r="E52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
     </row>
@@ -1856,11 +1952,11 @@
       </c>
       <c r="C54" s="9">
         <f>SUM(C50:C51)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="J54" s="2">
         <f>SUM(C50:C51)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="K54" s="2">
         <f>SUM(J53:K53)</f>
@@ -1897,11 +1993,11 @@
       </c>
       <c r="C57" s="6">
         <f>SUM(C53:C54)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="J57" s="2">
         <f>SUM(C53:C54)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="K57" s="2">
         <f>SUM(J56:K56)</f>
@@ -1938,11 +2034,11 @@
       </c>
       <c r="C60" s="9">
         <f>SUM(C56:C57)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="J60" s="2">
         <f>SUM(C56:C57)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="K60" s="2">
         <f>SUM(J59:K59)</f>
@@ -1979,11 +2075,11 @@
       </c>
       <c r="C63" s="6">
         <f>SUM(C59:C60)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="J63" s="2">
         <f>SUM(C59:C60)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="K63" s="2">
         <f>SUM(J62:K62)</f>
@@ -2020,11 +2116,11 @@
       </c>
       <c r="C66" s="9">
         <f>SUM(C62:C63)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="J66" s="2">
         <f>SUM(C62:C63)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="K66" s="2">
         <f>SUM(J65:K65)</f>
@@ -2061,11 +2157,11 @@
       </c>
       <c r="C69" s="6">
         <f>SUM(C65:C66)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="J69" s="2">
         <f>SUM(C65:C66)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="K69" s="2">
         <f>SUM(J68:K68)</f>
@@ -2102,11 +2198,11 @@
       </c>
       <c r="C72" s="9">
         <f>SUM(C68:C69)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="J72" s="2">
         <f>SUM(C68:C69)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="K72" s="2">
         <f>SUM(J71:K71)</f>
@@ -2143,11 +2239,11 @@
       </c>
       <c r="C75" s="6">
         <f>SUM(C71:C72)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="J75" s="2">
         <f>SUM(C71:C72)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="K75" s="2">
         <f>SUM(J74:K74)</f>
@@ -2184,11 +2280,11 @@
       </c>
       <c r="C78" s="9">
         <f>SUM(C74:C75)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="J78" s="2">
         <f>SUM(C74:C75)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="K78" s="2">
         <f>SUM(J77:K77)</f>
@@ -2225,11 +2321,11 @@
       </c>
       <c r="C81" s="6">
         <f>SUM(C77:C78)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="J81" s="2">
         <f>SUM(C77:C78)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="K81" s="2">
         <f>SUM(J80:K80)</f>
@@ -2266,11 +2362,11 @@
       </c>
       <c r="C84" s="9">
         <f>SUM(C80:C81)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="J84" s="2">
         <f>SUM(C80:C81)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="K84" s="2">
         <f>SUM(J83:K83)</f>
@@ -2307,11 +2403,11 @@
       </c>
       <c r="C87" s="6">
         <f>SUM(C83:C84)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="J87" s="2">
         <f>SUM(C83:C84)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="K87" s="2">
         <f>SUM(J86:K86)</f>
@@ -2348,11 +2444,11 @@
       </c>
       <c r="C90" s="9">
         <f>SUM(C86:C87)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="J90" s="2">
         <f>SUM(C86:C87)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="K90" s="2">
         <f>SUM(J89:K89)</f>
@@ -2389,11 +2485,11 @@
       </c>
       <c r="C93" s="6">
         <f>SUM(C89:C90)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="J93" s="2">
         <f>SUM(C89:C90)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="K93" s="2">
         <f>SUM(J92:K92)</f>
@@ -2430,11 +2526,11 @@
       </c>
       <c r="C96" s="9">
         <f>SUM(C92:C93)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="J96" s="2">
         <f>SUM(C92:C93)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="K96" s="2">
         <f>SUM(J95:K95)</f>
@@ -2471,11 +2567,11 @@
       </c>
       <c r="C99" s="6">
         <f>SUM(C95:C96)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="J99" s="2">
         <f>SUM(C95:C96)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="K99" s="2">
         <f>SUM(J98:K98)</f>
@@ -2512,11 +2608,11 @@
       </c>
       <c r="C102" s="9">
         <f>SUM(C98:C99)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="J102" s="2">
         <f>SUM(C98:C99)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="K102" s="2">
         <f>SUM(J101:K101)</f>
@@ -2553,11 +2649,11 @@
       </c>
       <c r="C105" s="6">
         <f>SUM(C101:C102)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="J105" s="2">
         <f>SUM(C101:C102)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="K105" s="2">
         <f>SUM(J104:K104)</f>
@@ -2594,11 +2690,11 @@
       </c>
       <c r="C108" s="9">
         <f>SUM(C104:C105)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="J108" s="2">
         <f>SUM(C104:C105)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="K108" s="2">
         <f>SUM(J107:K107)</f>
@@ -2635,11 +2731,11 @@
       </c>
       <c r="C111" s="6">
         <f>SUM(C107:C108)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="J111" s="2">
         <f>SUM(C107:C108)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="K111" s="2">
         <f>SUM(J110:K110)</f>
@@ -2676,11 +2772,11 @@
       </c>
       <c r="C114" s="9">
         <f>SUM(C110:C111)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="J114" s="2">
         <f>SUM(C110:C111)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="K114" s="2">
         <f>SUM(J113:K113)</f>
@@ -2717,11 +2813,11 @@
       </c>
       <c r="C117" s="6">
         <f>SUM(C113:C114)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="J117" s="2">
         <f>SUM(C113:C114)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="K117" s="2">
         <f>SUM(J116:K116)</f>
@@ -2758,11 +2854,11 @@
       </c>
       <c r="C120" s="9">
         <f>SUM(C116:C117)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="J120" s="2">
         <f>SUM(C116:C117)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="K120" s="2">
         <f>SUM(J119:K119)</f>
@@ -2799,11 +2895,11 @@
       </c>
       <c r="C123" s="6">
         <f>SUM(C119:C120)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="J123" s="2">
         <f>SUM(C119:C120)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="K123" s="2">
         <f>SUM(J122:K122)</f>
@@ -2840,11 +2936,11 @@
       </c>
       <c r="C126" s="9">
         <f>SUM(C122:C123)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="J126" s="2">
         <f>SUM(C122:C123)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="K126" s="2">
         <f>SUM(J125:K125)</f>
@@ -2881,11 +2977,11 @@
       </c>
       <c r="C129" s="6">
         <f>SUM(C125:C126)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="J129" s="2">
         <f>SUM(C125:C126)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="K129" s="2">
         <f>SUM(J128:K128)</f>
@@ -2922,11 +3018,11 @@
       </c>
       <c r="C132" s="9">
         <f>SUM(C128:C129)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="J132" s="2">
         <f>SUM(C128:C129)</f>
-        <v>759694.157</v>
+        <v>803952.557</v>
       </c>
       <c r="K132" s="2">
         <f>SUM(J131:K131)</f>

--- a/报表.xlsx
+++ b/报表.xlsx
@@ -13,13 +13,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">每日报表!$A$1:$C$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$D$22</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="11">
   <si>
     <t>日期</t>
   </si>
@@ -50,20 +51,31 @@
   <si>
     <t>计入本日 本月累计入库：</t>
   </si>
+  <si>
+    <t>重量（kg)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -87,9 +99,114 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -109,27 +226,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -138,52 +234,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -191,44 +241,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -257,13 +269,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,85 +437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,78 +450,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,6 +474,56 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,56 +567,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -571,10 +583,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,159 +595,165 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1095,356 +1113,361 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="4" width="16.7777777777778" style="9" customWidth="1"/>
-    <col min="5" max="5" width="26.5555555555556" style="9" customWidth="1"/>
-    <col min="6" max="16" width="16.7777777777778" style="9" customWidth="1"/>
-    <col min="17" max="17" width="11.7777777777778" style="9"/>
-    <col min="18" max="20" width="9" style="9"/>
-    <col min="21" max="21" width="11.7777777777778" style="9"/>
-    <col min="22" max="24" width="9" style="9"/>
-    <col min="25" max="25" width="11.7777777777778" style="9"/>
-    <col min="26" max="16384" width="9" style="9"/>
+    <col min="1" max="4" width="16.7777777777778" style="11" customWidth="1"/>
+    <col min="5" max="5" width="26.5555555555556" style="11" customWidth="1"/>
+    <col min="6" max="16" width="16.7777777777778" style="11" customWidth="1"/>
+    <col min="17" max="17" width="11.7777777777778" style="11"/>
+    <col min="18" max="20" width="9" style="11"/>
+    <col min="21" max="21" width="11.7777777777778" style="11"/>
+    <col min="22" max="24" width="9" style="11"/>
+    <col min="25" max="25" width="11.7777777777778" style="11"/>
+    <col min="26" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="20.4" spans="1:3">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="9" customFormat="1" ht="20.4" spans="1:3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="1" spans="1:3">
-      <c r="A2" s="4">
+    <row r="2" s="10" customFormat="1" spans="1:3">
+      <c r="A2" s="5">
         <v>44221</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="7">
         <v>9754</v>
       </c>
     </row>
-    <row r="3" s="8" customFormat="1" spans="1:3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
+    <row r="3" s="10" customFormat="1" spans="1:3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <v>627567.684</v>
       </c>
     </row>
-    <row r="4" s="8" customFormat="1" spans="1:3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
+    <row r="4" s="10" customFormat="1" spans="1:3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>12900</v>
       </c>
     </row>
-    <row r="5" s="8" customFormat="1" spans="1:3">
-      <c r="A5" s="1">
+    <row r="5" s="10" customFormat="1" spans="1:3">
+      <c r="A5" s="2">
         <v>44222</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>24703.7</v>
       </c>
     </row>
-    <row r="6" s="8" customFormat="1" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
+    <row r="6" s="10" customFormat="1" spans="1:3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="8">
         <v>637321.684</v>
       </c>
     </row>
-    <row r="7" s="8" customFormat="1" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
+    <row r="7" s="10" customFormat="1" spans="1:3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="8">
         <v>14488.3</v>
       </c>
     </row>
-    <row r="8" s="8" customFormat="1" spans="1:11">
-      <c r="A8" s="4">
+    <row r="8" s="10" customFormat="1" spans="1:11">
+      <c r="A8" s="5">
         <v>44223</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>21959.4</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="10">
         <f>SUM(C7:C8)</f>
         <v>36447.7</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="10">
         <v>-29491</v>
       </c>
     </row>
-    <row r="9" s="8" customFormat="1" spans="1:11">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5" t="s">
+    <row r="9" s="10" customFormat="1" spans="1:11">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="7">
         <v>662025.384</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="10">
         <f>SUM(C5:C6)</f>
         <v>662025.384</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="10">
         <f>SUM(J8:K8)</f>
         <v>6956.7</v>
       </c>
     </row>
-    <row r="10" s="8" customFormat="1" spans="1:3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
+    <row r="10" s="10" customFormat="1" spans="1:3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="7">
         <v>6956.7</v>
       </c>
     </row>
-    <row r="11" s="8" customFormat="1" spans="1:11">
-      <c r="A11" s="1">
+    <row r="11" s="10" customFormat="1" spans="1:11">
+      <c r="A11" s="2">
         <v>44224</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>13642.6</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="10">
         <f>SUM(C10:C11)</f>
         <v>20599.3</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="10">
         <v>-13642.6</v>
       </c>
     </row>
-    <row r="12" s="8" customFormat="1" spans="1:11">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2" t="s">
+    <row r="12" s="10" customFormat="1" spans="1:11">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="8">
         <f>C9+C8</f>
         <v>683984.784</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="10">
         <f>SUM(C8:C9)</f>
         <v>683984.784</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="10">
         <f>SUM(J11:K11)</f>
         <v>6956.7</v>
       </c>
     </row>
-    <row r="13" s="8" customFormat="1" spans="1:3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2" t="s">
+    <row r="13" s="10" customFormat="1" spans="1:3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="8">
         <v>6956.7</v>
       </c>
     </row>
-    <row r="14" s="8" customFormat="1" spans="1:10">
-      <c r="A14" s="4">
+    <row r="14" s="10" customFormat="1" spans="1:10">
+      <c r="A14" s="5">
         <v>44225</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="6">
         <v>33780.573</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="10">
         <f>SUM(C13:C14)</f>
         <v>40737.273</v>
       </c>
     </row>
-    <row r="15" s="8" customFormat="1" spans="1:11">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5" t="s">
+    <row r="15" s="10" customFormat="1" spans="1:11">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="7">
         <f>SUM(C11:C12)</f>
         <v>697627.384</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="10">
         <f>SUM(C11:C12)</f>
         <v>697627.384</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="10">
         <f>SUM(J14:K14)</f>
         <v>40737.273</v>
       </c>
     </row>
-    <row r="16" s="8" customFormat="1" spans="1:3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5" t="s">
+    <row r="16" s="10" customFormat="1" spans="1:3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="7">
         <v>40737.273</v>
       </c>
     </row>
-    <row r="17" s="8" customFormat="1" spans="1:10">
-      <c r="A17" s="1">
+    <row r="17" s="10" customFormat="1" spans="1:10">
+      <c r="A17" s="2">
         <v>44226</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>28286.2</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="10">
         <f>SUM(C16:C17)</f>
         <v>69023.473</v>
       </c>
     </row>
-    <row r="18" s="8" customFormat="1" spans="1:11">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2" t="s">
+    <row r="18" s="10" customFormat="1" spans="1:11">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="8">
         <f>SUM(C14:C15)</f>
         <v>731407.957</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="10">
         <f>SUM(C14:C15)</f>
         <v>731407.957</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="10">
         <f>SUM(J17:K17)</f>
         <v>69023.473</v>
       </c>
     </row>
-    <row r="19" s="8" customFormat="1" spans="1:3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2" t="s">
+    <row r="19" s="10" customFormat="1" spans="1:3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="8">
         <f>C16+C17</f>
         <v>69023.473</v>
       </c>
     </row>
-    <row r="20" s="8" customFormat="1" spans="1:10">
-      <c r="A20" s="4">
+    <row r="20" s="10" customFormat="1" spans="1:10">
+      <c r="A20" s="5">
         <v>44227</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="6">
         <v>44258.4</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="10">
         <f>SUM(C19:C20)</f>
         <v>113281.873</v>
       </c>
     </row>
-    <row r="21" s="8" customFormat="1" spans="1:11">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5" t="s">
+    <row r="21" s="10" customFormat="1" spans="1:11">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="7">
         <f>SUM(C17:C18)</f>
         <v>759694.157</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="10">
         <f>C21+C20</f>
         <v>803952.557</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="10">
         <f>SUM(C17:C18)</f>
         <v>759694.157</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="10">
         <f>SUM(J20:K20)</f>
         <v>113281.873</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5" t="s">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="7">
         <v>113281.9</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="M22" s="8"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="11">
+        <v>87013.9</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C22">
@@ -1468,202 +1491,225 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="3" width="16.7777777777778" customWidth="1"/>
+    <col min="1" max="2" width="16.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="18.7777777777778" customWidth="1"/>
     <col min="4" max="4" width="26.5555555555556" customWidth="1"/>
     <col min="6" max="6" width="10.1111111111111"/>
   </cols>
   <sheetData>
+    <row r="1" ht="22.2" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>44228</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3">
+        <v>17591.6</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3">
+        <v>17591.6</v>
+      </c>
+      <c r="D3" s="3">
+        <v>17591.6</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="4">
+        <v>104605.5</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>44229</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>44230</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>44231</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>44232</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="8"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="4">
+      <c r="A17" s="5">
         <v>44233</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="2" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="7"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>44234</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="8"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="8"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D22">
+    <extLst/>
+  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>

--- a/报表.xlsx
+++ b/报表.xlsx
@@ -7,20 +7,20 @@
     <workbookView windowWidth="30048" windowHeight="13740" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="每日报表" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="1月份" sheetId="1" r:id="rId1"/>
+    <sheet name="2月份" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">每日报表!$A$1:$C$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$D$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1月份'!$A$1:$C$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2月份'!$A$1:$C$22</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="16">
   <si>
     <t>日期</t>
   </si>
@@ -54,6 +54,21 @@
   <si>
     <t>重量（kg)</t>
   </si>
+  <si>
+    <t>福州地铁</t>
+  </si>
+  <si>
+    <t>大东海</t>
+  </si>
+  <si>
+    <t>出货量（kg)</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>未计入当日库存</t>
+  </si>
 </sst>
 </file>
 
@@ -98,8 +113,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,40 +219,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,88 +244,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -257,13 +272,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,186 +458,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -479,36 +494,29 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,6 +532,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,21 +571,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -575,6 +579,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -583,10 +611,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -595,139 +623,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -738,31 +769,40 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1118,354 +1158,354 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="4" width="16.7777777777778" style="11" customWidth="1"/>
-    <col min="5" max="5" width="26.5555555555556" style="11" customWidth="1"/>
-    <col min="6" max="16" width="16.7777777777778" style="11" customWidth="1"/>
-    <col min="17" max="17" width="11.7777777777778" style="11"/>
-    <col min="18" max="20" width="9" style="11"/>
-    <col min="21" max="21" width="11.7777777777778" style="11"/>
-    <col min="22" max="24" width="9" style="11"/>
-    <col min="25" max="25" width="11.7777777777778" style="11"/>
-    <col min="26" max="16384" width="9" style="11"/>
+    <col min="1" max="4" width="16.7777777777778" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5555555555556" style="1" customWidth="1"/>
+    <col min="6" max="16" width="16.7777777777778" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7777777777778" style="1"/>
+    <col min="18" max="20" width="9" style="1"/>
+    <col min="21" max="21" width="11.7777777777778" style="1"/>
+    <col min="22" max="24" width="9" style="1"/>
+    <col min="25" max="25" width="11.7777777777778" style="1"/>
+    <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="20.4" spans="1:3">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="16" customFormat="1" ht="20.4" spans="1:3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="10" customFormat="1" spans="1:3">
-      <c r="A2" s="5">
+    <row r="2" s="7" customFormat="1" spans="1:3">
+      <c r="A2" s="11">
         <v>44221</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="13">
         <v>9754</v>
       </c>
     </row>
-    <row r="3" s="10" customFormat="1" spans="1:3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+    <row r="3" s="7" customFormat="1" spans="1:3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="13">
         <v>627567.684</v>
       </c>
     </row>
-    <row r="4" s="10" customFormat="1" spans="1:3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
+    <row r="4" s="7" customFormat="1" spans="1:3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="13">
         <v>12900</v>
       </c>
     </row>
-    <row r="5" s="10" customFormat="1" spans="1:3">
-      <c r="A5" s="2">
+    <row r="5" s="7" customFormat="1" spans="1:3">
+      <c r="A5" s="3">
         <v>44222</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>24703.7</v>
       </c>
     </row>
-    <row r="6" s="10" customFormat="1" spans="1:3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
+    <row r="6" s="7" customFormat="1" spans="1:3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="10">
         <v>637321.684</v>
       </c>
     </row>
-    <row r="7" s="10" customFormat="1" spans="1:3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
+    <row r="7" s="7" customFormat="1" spans="1:3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="10">
         <v>14488.3</v>
       </c>
     </row>
-    <row r="8" s="10" customFormat="1" spans="1:11">
-      <c r="A8" s="5">
+    <row r="8" s="7" customFormat="1" spans="1:11">
+      <c r="A8" s="11">
         <v>44223</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="12">
         <v>21959.4</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="7">
         <f>SUM(C7:C8)</f>
         <v>36447.7</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="7">
         <v>-29491</v>
       </c>
     </row>
-    <row r="9" s="10" customFormat="1" spans="1:11">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
+    <row r="9" s="7" customFormat="1" spans="1:11">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="13">
         <v>662025.384</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="7">
         <f>SUM(C5:C6)</f>
         <v>662025.384</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="7">
         <f>SUM(J8:K8)</f>
         <v>6956.7</v>
       </c>
     </row>
-    <row r="10" s="10" customFormat="1" spans="1:3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6" t="s">
+    <row r="10" s="7" customFormat="1" spans="1:3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="13">
         <v>6956.7</v>
       </c>
     </row>
-    <row r="11" s="10" customFormat="1" spans="1:11">
-      <c r="A11" s="2">
+    <row r="11" s="7" customFormat="1" spans="1:11">
+      <c r="A11" s="3">
         <v>44224</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <v>13642.6</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="7">
         <f>SUM(C10:C11)</f>
         <v>20599.3</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="7">
         <v>-13642.6</v>
       </c>
     </row>
-    <row r="12" s="10" customFormat="1" spans="1:11">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
+    <row r="12" s="7" customFormat="1" spans="1:11">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="10">
         <f>C9+C8</f>
         <v>683984.784</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="7">
         <f>SUM(C8:C9)</f>
         <v>683984.784</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="7">
         <f>SUM(J11:K11)</f>
         <v>6956.7</v>
       </c>
     </row>
-    <row r="13" s="10" customFormat="1" spans="1:3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
+    <row r="13" s="7" customFormat="1" spans="1:3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="10">
         <v>6956.7</v>
       </c>
     </row>
-    <row r="14" s="10" customFormat="1" spans="1:10">
-      <c r="A14" s="5">
+    <row r="14" s="7" customFormat="1" spans="1:10">
+      <c r="A14" s="11">
         <v>44225</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="12">
         <v>33780.573</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="7">
         <f>SUM(C13:C14)</f>
         <v>40737.273</v>
       </c>
     </row>
-    <row r="15" s="10" customFormat="1" spans="1:11">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6" t="s">
+    <row r="15" s="7" customFormat="1" spans="1:11">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="13">
         <f>SUM(C11:C12)</f>
         <v>697627.384</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="7">
         <f>SUM(C11:C12)</f>
         <v>697627.384</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="7">
         <f>SUM(J14:K14)</f>
         <v>40737.273</v>
       </c>
     </row>
-    <row r="16" s="10" customFormat="1" spans="1:3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6" t="s">
+    <row r="16" s="7" customFormat="1" spans="1:3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="13">
         <v>40737.273</v>
       </c>
     </row>
-    <row r="17" s="10" customFormat="1" spans="1:10">
-      <c r="A17" s="2">
+    <row r="17" s="7" customFormat="1" spans="1:10">
+      <c r="A17" s="3">
         <v>44226</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="4">
         <v>28286.2</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="7">
         <f>SUM(C16:C17)</f>
         <v>69023.473</v>
       </c>
     </row>
-    <row r="18" s="10" customFormat="1" spans="1:11">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3" t="s">
+    <row r="18" s="7" customFormat="1" spans="1:11">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="10">
         <f>SUM(C14:C15)</f>
         <v>731407.957</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="7">
         <f>SUM(C14:C15)</f>
         <v>731407.957</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="7">
         <f>SUM(J17:K17)</f>
         <v>69023.473</v>
       </c>
     </row>
-    <row r="19" s="10" customFormat="1" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3" t="s">
+    <row r="19" s="7" customFormat="1" spans="1:3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="10">
         <f>C16+C17</f>
         <v>69023.473</v>
       </c>
     </row>
-    <row r="20" s="10" customFormat="1" spans="1:10">
-      <c r="A20" s="5">
+    <row r="20" s="7" customFormat="1" spans="1:10">
+      <c r="A20" s="11">
         <v>44227</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="12">
         <v>44258.4</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="7">
         <f>SUM(C19:C20)</f>
         <v>113281.873</v>
       </c>
     </row>
-    <row r="21" s="10" customFormat="1" spans="1:11">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6" t="s">
+    <row r="21" s="7" customFormat="1" spans="1:11">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="13">
         <f>SUM(C17:C18)</f>
         <v>759694.157</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="7">
         <f>C21+C20</f>
         <v>803952.557</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="7">
         <f>SUM(C17:C18)</f>
         <v>759694.157</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="7">
         <f>SUM(J20:K20)</f>
         <v>113281.873</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="13">
         <v>113281.9</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="M22" s="10"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="M22" s="7"/>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="11">
+      <c r="D23" s="1">
         <v>87013.9</v>
       </c>
     </row>
@@ -1491,226 +1531,322 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="16.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="18.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="26.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="10.1111111111111"/>
+    <col min="1" max="2" width="16.7777777777778" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7777777777778" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1111111111111" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.4444444444444" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="13" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="13" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.2" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="22.2" spans="1:10">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2">
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3">
         <v>44228</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>17591.6</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>17591.6</v>
       </c>
-      <c r="D3" s="3">
-        <v>17591.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+      <c r="D3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="8">
+        <v>27941.204</v>
+      </c>
+      <c r="H3" s="9">
+        <v>2.2</v>
+      </c>
+      <c r="J3" s="9">
+        <v>28286.2</v>
+      </c>
+      <c r="K3" s="9">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="10">
         <v>104605.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="5">
+      <c r="G4" s="9">
+        <v>20611.019</v>
+      </c>
+      <c r="H4" s="9">
+        <v>2.3</v>
+      </c>
+      <c r="J4" s="8">
+        <v>22878.4</v>
+      </c>
+      <c r="K4" s="9">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="11">
         <v>44229</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
+      <c r="C5" s="12">
+        <v>14082.6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
+      <c r="C6" s="13">
+        <f>C3+C5</f>
+        <v>31674.2</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2">
+      <c r="C7" s="13">
+        <f>C5+C4-J3</f>
+        <v>90401.9</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3">
         <v>44230</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
+      <c r="C8" s="4">
+        <v>27846.2</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
+      <c r="C9" s="10">
+        <f>C8+C6</f>
+        <v>59520.4</v>
+      </c>
+      <c r="D9" s="15">
+        <v>53563.054</v>
+      </c>
+      <c r="E9" s="15">
+        <v>67523.5</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="5">
+      <c r="C10" s="10">
+        <v>95369.7</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="11">
         <v>44231</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6" t="s">
+      <c r="C11" s="12"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6" t="s">
+      <c r="C12" s="13"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
+      <c r="C13" s="13"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3">
         <v>44232</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
+      <c r="C14" s="4"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
+      <c r="C15" s="10"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="5">
+      <c r="C16" s="10"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="11">
         <v>44233</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6" t="s">
+      <c r="C17" s="12"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="7"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6" t="s">
+      <c r="C18" s="13"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2">
+      <c r="C19" s="13"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="3">
         <v>44234</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="C20" s="4"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="8"/>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="8"/>
+      <c r="C22" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D22">
+  <autoFilter ref="A1:C22">
     <extLst/>
   </autoFilter>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>

--- a/报表.xlsx
+++ b/报表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="16">
   <si>
     <t>日期</t>
   </si>
@@ -77,8 +77,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -113,6 +113,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -123,7 +205,30 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,29 +241,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,91 +256,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -290,181 +290,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,43 +521,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,6 +548,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -595,11 +589,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,10 +611,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -623,137 +623,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -794,12 +794,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1174,14 +1168,14 @@
     <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="16" customFormat="1" ht="20.4" spans="1:3">
-      <c r="A1" s="16" t="s">
+    <row r="1" s="14" customFormat="1" ht="20.4" spans="1:3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1534,7 +1528,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1692,7 +1686,7 @@
       <c r="D8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="9"/>
@@ -1707,10 +1701,10 @@
         <f>C8+C6</f>
         <v>59520.4</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="9">
         <v>53563.054</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="9">
         <v>67523.5</v>
       </c>
       <c r="G9" s="9"/>
@@ -1724,7 +1718,6 @@
       <c r="C10" s="10">
         <v>95369.7</v>
       </c>
-      <c r="D10" s="1"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
@@ -1735,7 +1728,12 @@
       <c r="B11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="12">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
     </row>
@@ -1744,7 +1742,13 @@
       <c r="B12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="13">
+        <f>C9</f>
+        <v>59520.4</v>
+      </c>
+      <c r="D12" s="9">
+        <v>53563.054</v>
+      </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
     </row>
@@ -1753,7 +1757,10 @@
       <c r="B13" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="13">
+        <v>95369.7</v>
+      </c>
+      <c r="D13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>

--- a/报表.xlsx
+++ b/报表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="20">
   <si>
     <t>日期</t>
   </si>
@@ -61,6 +61,9 @@
     <t>大东海</t>
   </si>
   <si>
+    <t>当前库存</t>
+  </si>
+  <si>
     <t>出货量（kg)</t>
   </si>
   <si>
@@ -69,16 +72,25 @@
   <si>
     <t>未计入当日库存</t>
   </si>
+  <si>
+    <t>1月29号出库</t>
+  </si>
+  <si>
+    <t>1月31号出库</t>
+  </si>
+  <si>
+    <t>2月1号出库</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -113,6 +125,94 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -121,49 +221,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -172,24 +229,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,21 +245,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -234,21 +261,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -296,37 +308,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,140 +480,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -507,6 +519,32 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -524,26 +562,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,6 +594,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -585,6 +614,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,10 +649,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -623,137 +661,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -794,6 +832,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1152,7 +1199,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1168,14 +1215,14 @@
     <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="1" ht="20.4" spans="1:3">
-      <c r="A1" s="14" t="s">
+    <row r="1" s="17" customFormat="1" ht="20.4" spans="1:3">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1525,10 +1572,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G18" sqref="E18:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1537,14 +1584,15 @@
     <col min="3" max="3" width="18.7777777777778" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.1111111111111" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.4444444444444" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="13" style="1" customWidth="1"/>
+    <col min="6" max="7" width="13" style="1" customWidth="1"/>
     <col min="8" max="9" width="9" style="1"/>
     <col min="10" max="10" width="13" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="11" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="9.66666666666667" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.2" spans="1:10">
+    <row r="1" ht="22.2" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1558,6 +1606,9 @@
       <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3">
@@ -1573,16 +1624,16 @@
         <v>6</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="K2" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1687,7 +1738,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -1771,7 +1822,12 @@
       <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4">
+        <v>30539.4</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
     </row>
@@ -1780,7 +1836,13 @@
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="10">
+        <f>SUM(C14,C12)</f>
+        <v>90059.8</v>
+      </c>
+      <c r="D15" s="9">
+        <v>53563.054</v>
+      </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
     </row>
@@ -1789,8 +1851,11 @@
       <c r="B16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="G16" s="9"/>
+      <c r="C16" s="10">
+        <f>SUM(C13:C14)</f>
+        <v>125909.1</v>
+      </c>
+      <c r="G16" s="14"/>
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8">
@@ -1801,17 +1866,42 @@
         <v>3</v>
       </c>
       <c r="C17" s="12"/>
-      <c r="G17" s="9"/>
+      <c r="D17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:13">
       <c r="A18" s="11"/>
       <c r="B18" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="G18" s="9"/>
+      <c r="D18" s="9">
+        <v>53563.054</v>
+      </c>
+      <c r="E18" s="15">
+        <v>-21440</v>
+      </c>
+      <c r="F18" s="15">
+        <v>-26250</v>
+      </c>
+      <c r="G18" s="9">
+        <v>-28286.2</v>
+      </c>
       <c r="H18" s="9"/>
+      <c r="M18" s="1">
+        <v>78219.1</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="11"/>
@@ -1819,7 +1909,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="G19" s="9"/>
+      <c r="G19" s="16"/>
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8">

--- a/报表.xlsx
+++ b/报表.xlsx
@@ -13,14 +13,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1月份'!$A$1:$C$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2月份'!$A$1:$C$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2月份'!$A$1:$C$28</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="17">
   <si>
     <t>日期</t>
   </si>
@@ -72,15 +72,6 @@
   <si>
     <t>未计入当日库存</t>
   </si>
-  <si>
-    <t>1月29号出库</t>
-  </si>
-  <si>
-    <t>1月31号出库</t>
-  </si>
-  <si>
-    <t>2月1号出库</t>
-  </si>
 </sst>
 </file>
 
@@ -125,6 +116,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -141,42 +214,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -185,14 +222,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,29 +244,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -238,36 +253,12 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -296,187 +287,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,6 +535,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -562,8 +573,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,22 +603,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,30 +632,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -649,10 +640,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,137 +652,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -835,9 +826,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1199,7 +1187,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1215,14 +1203,14 @@
     <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="1" ht="20.4" spans="1:3">
-      <c r="A1" s="17" t="s">
+    <row r="1" s="16" customFormat="1" ht="20.4" spans="1:3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1572,10 +1560,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="E18:G18"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1865,19 +1853,13 @@
       <c r="B17" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="12"/>
+      <c r="C17" s="12">
+        <v>16541.91</v>
+      </c>
       <c r="D17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="G17" s="9"/>
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:13">
@@ -1885,19 +1867,14 @@
       <c r="B18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="13">
+        <f>C17+C15</f>
+        <v>106601.71</v>
+      </c>
       <c r="D18" s="9">
         <v>53563.054</v>
       </c>
-      <c r="E18" s="15">
-        <v>-21440</v>
-      </c>
-      <c r="F18" s="15">
-        <v>-26250</v>
-      </c>
-      <c r="G18" s="9">
-        <v>-28286.2</v>
-      </c>
+      <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="M18" s="1">
         <v>78219.1</v>
@@ -1908,8 +1885,10 @@
       <c r="B19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="G19" s="16"/>
+      <c r="C19" s="13">
+        <v>68325.7</v>
+      </c>
+      <c r="G19" s="15"/>
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8">
@@ -1919,29 +1898,103 @@
       <c r="B20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="4">
+        <v>20804</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="10"/>
+      <c r="C21" s="10">
+        <f>C18+C20</f>
+        <v>127405.71</v>
+      </c>
+      <c r="D21" s="9">
+        <v>53563.054</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="10">
+        <f>SUM(C19:C20)</f>
+        <v>89129.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="11">
+        <v>44235</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="12">
+        <v>12255</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="11"/>
+      <c r="B24" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="13">
+        <f>C21+C20</f>
+        <v>148209.71</v>
+      </c>
+      <c r="D24" s="9">
+        <v>53563.054</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="13">
+        <f>SUM(C22:C23)</f>
+        <v>101384.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3">
+        <v>44236</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="10"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C22">
+  <autoFilter ref="A1:C28">
     <extLst/>
   </autoFilter>
-  <mergeCells count="9">
+  <mergeCells count="11">
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:A4"/>
@@ -1951,6 +2004,8 @@
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
